--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF61BF-97CB-4145-B6AA-A42F03E30D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B1B36-D59A-4172-AA15-7E5AC1A279A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -250,14 +250,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -676,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D198E-5AB9-4659-98FE-90D6D40AD3BA}">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,55 +684,46 @@
     <col min="2" max="2" width="53.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="4"/>
-    <col min="5" max="5" width="11.42578125" style="12"/>
-    <col min="6" max="13" width="11.42578125" style="13"/>
+    <col min="5" max="5" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    </row>
+    <row r="3" spans="1:13" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>1</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -743,44 +732,36 @@
       <c r="B4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>44970</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    </row>
+    <row r="5" spans="1:13" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>2</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -789,44 +770,36 @@
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <v>44970</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -835,44 +808,36 @@
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="8">
         <v>5</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>12</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -881,42 +846,34 @@
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8">
         <v>10</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    </row>
+    <row r="11" spans="1:13" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>8</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -925,44 +882,36 @@
       <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="8">
         <v>13</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    </row>
+    <row r="13" spans="1:13" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>7</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -971,44 +920,36 @@
       <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>9</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -1017,42 +958,34 @@
       <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="8">
         <v>6</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    </row>
+    <row r="17" spans="1:13" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18">
         <v>11</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B1B36-D59A-4172-AA15-7E5AC1A279A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4744633F-F303-480F-8883-227DA2B4E7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
   <si>
     <t>ToDo</t>
   </si>
@@ -152,13 +152,91 @@
   </si>
   <si>
     <t>vermulich A2, genaue Infos folgen noch, im nächsten open Space werden die Inhalte zusammengeschrieben, Inhalte und beispiele sammeln</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>Proof of Concepts</t>
+  </si>
+  <si>
+    <t>Three JS</t>
+  </si>
+  <si>
+    <t>Flutter</t>
+  </si>
+  <si>
+    <t>Rapid Prototype</t>
+  </si>
+  <si>
+    <t>Artefakte</t>
+  </si>
+  <si>
+    <t>Anforderungen</t>
+  </si>
+  <si>
+    <t>Anwendungslogik</t>
+  </si>
+  <si>
+    <t>Domänenmodell</t>
+  </si>
+  <si>
+    <t>Klassendiagramm</t>
+  </si>
+  <si>
+    <t>Plattform Pro/Kontra</t>
+  </si>
+  <si>
+    <t>Zielhierarchie</t>
+  </si>
+  <si>
+    <t>PoCs Text und Grafik</t>
+  </si>
+  <si>
+    <t>Programmefestlegung</t>
+  </si>
+  <si>
+    <t>Projektplan</t>
+  </si>
+  <si>
+    <t>SWOT Analyse</t>
+  </si>
+  <si>
+    <t>A-Star</t>
+  </si>
+  <si>
+    <t>A-Star Variante</t>
+  </si>
+  <si>
+    <t>React Implementierung</t>
+  </si>
+  <si>
+    <t>Umgesetzte Features</t>
+  </si>
+  <si>
+    <t>Grundriss 3D Modell</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>Audits vorbereiten</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>3/4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +259,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,10 +311,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -287,8 +379,13 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -660,13 +757,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" style="9" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -674,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D198E-5AB9-4659-98FE-90D6D40AD3BA}">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4744633F-F303-480F-8883-227DA2B4E7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5AD308-9E06-4602-B87D-39EE3CA06267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsmatrix" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Türen farblich/geometrie ändern</t>
   </si>
   <si>
-    <t>Linie/weg bei Texteingabe</t>
-  </si>
-  <si>
     <t>Kamera (unabhängige Bewegung und reset Button)</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>3/4</t>
+  </si>
+  <si>
+    <t>Linie/Weg bei Texteingabe</t>
   </si>
 </sst>
 </file>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -773,18 +773,18 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -792,7 +792,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -800,7 +800,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -808,7 +808,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -816,49 +816,49 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -890,7 +890,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -898,30 +898,30 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,139 +929,139 @@
         <v>6</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D198E-5AB9-4659-98FE-90D6D40AD3BA}">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,10 +1107,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="18">
         <v>1</v>
@@ -1130,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="21">
         <v>44970</v>
@@ -1145,10 +1145,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="18">
         <v>2</v>
@@ -1168,10 +1168,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
@@ -1183,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="22">
         <v>44970</v>
@@ -1206,10 +1206,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="8">
         <v>5</v>
@@ -1221,10 +1221,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="18">
         <v>12</v>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="8">
@@ -1254,13 +1254,13 @@
     </row>
     <row r="11" spans="1:13" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="18">
         <v>8</v>
@@ -1280,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8">
         <v>13</v>
@@ -1292,13 +1292,13 @@
     </row>
     <row r="13" spans="1:13" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="18">
         <v>7</v>
@@ -1315,13 +1315,13 @@
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
@@ -1330,13 +1330,13 @@
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="C15" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="18">
         <v>9</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="16" spans="1:13" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="8">
         <v>6</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="17" spans="1:13" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18">
@@ -1389,7 +1389,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studium\Semester_5\EP\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5AD308-9E06-4602-B87D-39EE3CA06267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917829B-8222-421D-A04B-8DFD5066139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="0" windowWidth="25020" windowHeight="16785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsmatrix" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>ToDo</t>
   </si>
@@ -166,15 +166,9 @@
     <t>Rapid Prototype</t>
   </si>
   <si>
-    <t>Artefakte</t>
-  </si>
-  <si>
     <t>Anforderungen</t>
   </si>
   <si>
-    <t>Anwendungslogik</t>
-  </si>
-  <si>
     <t>Domänenmodell</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>Zielhierarchie</t>
   </si>
   <si>
-    <t>PoCs Text und Grafik</t>
-  </si>
-  <si>
     <t>Programmefestlegung</t>
   </si>
   <si>
@@ -208,28 +199,70 @@
     <t>React Implementierung</t>
   </si>
   <si>
-    <t>Umgesetzte Features</t>
-  </si>
-  <si>
-    <t>Grundriss 3D Modell</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>Audits vorbereiten</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>3/4</t>
-  </si>
-  <si>
     <t>Linie/Weg bei Texteingabe</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>3D Modelle</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>Auditpräsentation vorbereiten</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>AnwendungslogikDiagramm</t>
+  </si>
+  <si>
+    <t>aSternVariant_Beispiele</t>
+  </si>
+  <si>
+    <t>Expose</t>
+  </si>
+  <si>
+    <t>PoC</t>
+  </si>
+  <si>
+    <t>PocFlow</t>
+  </si>
+  <si>
+    <t>ProgrammGraph</t>
+  </si>
+  <si>
+    <t>Artefaktanfertigung</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>Projktideen</t>
+  </si>
+  <si>
+    <t>Pseudocode A Star Variant</t>
+  </si>
+  <si>
+    <t>Pseudocode</t>
+  </si>
+  <si>
+    <t>Risikoanalyse</t>
+  </si>
+  <si>
+    <t>Umgesetzte Features/Intgration</t>
   </si>
 </sst>
 </file>
@@ -315,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -381,8 +414,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -757,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D28"/>
+  <dimension ref="A2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -786,282 +829,356 @@
       <c r="A3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25" t="s">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25" t="s">
-        <v>65</v>
-      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+        <v>78</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+        <v>72</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="B19" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>62</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>62</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>62</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="27">
+        <v>1</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="27">
+        <v>1</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1074,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D198E-5AB9-4659-98FE-90D6D40AD3BA}">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1432,7 @@
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studium\Semester_5\EP\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3917829B-8222-421D-A04B-8DFD5066139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24392655-6AC1-4F34-BDD6-28193617E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="0" windowWidth="25020" windowHeight="16785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsmatrix" sheetId="1" r:id="rId1"/>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D198E-5AB9-4659-98FE-90D6D40AD3BA}">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24392655-6AC1-4F34-BDD6-28193617E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4209ECB0-36F4-419D-AE70-DCA08C3A3896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsmatrix" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>ToDo</t>
   </si>
@@ -154,15 +154,6 @@
     <t>Anastasia</t>
   </si>
   <si>
-    <t>Proof of Concepts</t>
-  </si>
-  <si>
-    <t>Three JS</t>
-  </si>
-  <si>
-    <t>Flutter</t>
-  </si>
-  <si>
     <t>Rapid Prototype</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>Zielhierarchie</t>
   </si>
   <si>
-    <t>Programmefestlegung</t>
-  </si>
-  <si>
     <t>Projektplan</t>
   </si>
   <si>
@@ -202,30 +190,12 @@
     <t>Linie/Weg bei Texteingabe</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
     <t>3D Modelle</t>
   </si>
   <si>
-    <t>33%</t>
-  </si>
-  <si>
     <t>Auditpräsentation vorbereiten</t>
   </si>
   <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
     <t>AnwendungslogikDiagramm</t>
   </si>
   <si>
@@ -247,22 +217,37 @@
     <t>Artefaktanfertigung</t>
   </si>
   <si>
-    <t>80%</t>
-  </si>
-  <si>
     <t>Projktideen</t>
   </si>
   <si>
     <t>Pseudocode A Star Variant</t>
   </si>
   <si>
-    <t>Pseudocode</t>
-  </si>
-  <si>
     <t>Risikoanalyse</t>
   </si>
   <si>
-    <t>Umgesetzte Features/Intgration</t>
+    <t>Funktionaler Prottyp</t>
+  </si>
+  <si>
+    <t>Zusammenführung d. Prototypen</t>
+  </si>
+  <si>
+    <t>Interface erstellen</t>
+  </si>
+  <si>
+    <t>UI Entwürfe</t>
+  </si>
+  <si>
+    <t>Pseudocode PathMesh</t>
+  </si>
+  <si>
+    <t>Programmfestlegung</t>
+  </si>
+  <si>
+    <t>3D Modelle Integration/Änderung</t>
+  </si>
+  <si>
+    <t>Kamerawechsel</t>
   </si>
 </sst>
 </file>
@@ -348,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -417,14 +402,23 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -800,20 +794,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D36"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" style="9" customWidth="1"/>
     <col min="2" max="4" width="12.85546875" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="5" max="5" width="9.140625" style="9"/>
+    <col min="6" max="6" width="32.7109375" style="9" customWidth="1"/>
+    <col min="7" max="9" width="13.140625" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23" t="s">
         <v>34</v>
@@ -824,361 +829,403 @@
       <c r="D2" s="23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="F3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="26"/>
+        <v>54</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="28">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33">
+        <v>1</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26" t="s">
-        <v>58</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26"/>
       <c r="D9" s="26"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="28">
+        <v>1</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="33">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="D13" s="28">
+        <v>1</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="28">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+        <v>64</v>
+      </c>
+      <c r="B20" s="26">
+        <v>0.33</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="B22" s="26">
+        <v>0.33</v>
+      </c>
+      <c r="C22" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0.33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="B23" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26" t="s">
-        <v>58</v>
+      <c r="B24" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="C24" s="28">
+        <v>0.33</v>
+      </c>
+      <c r="D24" s="28">
+        <v>0.33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="26"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="26"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="27">
-        <v>1</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="27">
-        <v>1</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>65</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="28">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1191,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D198E-5AB9-4659-98FE-90D6D40AD3BA}">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1479,7 @@
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>

--- a/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
+++ b/Artefakte/WS2122_ChouliarasBurgdorfWolf_Arbeitsmatrix_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Entwicklungsprojekt\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studium\Semester_5\EP\EPW2122ChouliarasBurgdorfWolf\Artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4209ECB0-36F4-419D-AE70-DCA08C3A3896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED760A5-00A5-4349-A5B6-7ECDC48356FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="0" windowWidth="25365" windowHeight="16785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsmatrix" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>ToDo</t>
   </si>
@@ -184,9 +184,6 @@
     <t>A-Star Variante</t>
   </si>
   <si>
-    <t>React Implementierung</t>
-  </si>
-  <si>
     <t>Linie/Weg bei Texteingabe</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>Funktionaler Prottyp</t>
   </si>
   <si>
-    <t>Zusammenführung d. Prototypen</t>
-  </si>
-  <si>
     <t>Interface erstellen</t>
   </si>
   <si>
@@ -248,6 +242,15 @@
   </si>
   <si>
     <t>Kamerawechsel</t>
+  </si>
+  <si>
+    <t>Flutter</t>
+  </si>
+  <si>
+    <t>Three JS</t>
+  </si>
+  <si>
+    <t>Integration in React Three Fiber</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -328,12 +331,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -399,26 +428,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -810,15 +844,7 @@
     <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="23" t="s">
         <v>34</v>
@@ -839,364 +865,348 @@
       <c r="I2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="F3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="F3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="D4" s="28">
+        <v>57</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="D4" s="25">
         <v>0.33</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="28">
+        <v>72</v>
+      </c>
+      <c r="G4" s="33">
         <v>0.1</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="33">
+        <v>0.45</v>
+      </c>
+      <c r="I4" s="33">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="28">
+        <v>53</v>
+      </c>
+      <c r="B5" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="F5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="28">
+        <v>73</v>
+      </c>
+      <c r="G5" s="33">
         <v>1</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="C6" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="D6" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="28">
+      <c r="B6" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="25">
         <v>1</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="D7" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="D8" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33">
+      <c r="B8" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="25">
         <v>1</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="28">
-        <v>1</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="F9" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <v>1</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="F10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="33">
+        <v>66</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="28">
         <v>1</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="C11" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="D11" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="33">
-        <v>0.8</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="29"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="C12" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="D12" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="28">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25">
         <v>1</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="C14" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="D14" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="C15" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="D15" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="28">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25">
         <v>1</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="28">
+        <v>69</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28">
+        <v>60</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25">
         <v>1</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="25">
         <v>0.1</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="25">
         <v>0.1</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="25">
         <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="26">
-        <v>0.33</v>
-      </c>
-      <c r="C20" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="D20" s="28">
+        <v>63</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="D20" s="25">
         <v>0.33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="26">
+        <v>68</v>
+      </c>
+      <c r="B21" s="25">
         <v>1</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="26">
-        <v>0.33</v>
-      </c>
-      <c r="C22" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="D22" s="28">
+        <v>67</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="D22" s="25">
         <v>0.33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="28">
+        <v>64</v>
+      </c>
+      <c r="B23" s="25">
         <v>0.3</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="25">
         <v>0.3</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="25">
         <v>0.4</v>
       </c>
     </row>
@@ -1204,27 +1214,27 @@
       <c r="A24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="C24" s="28">
-        <v>0.33</v>
-      </c>
-      <c r="D24" s="28">
+      <c r="B24" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="D24" s="25">
         <v>0.33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="28">
+        <v>54</v>
+      </c>
+      <c r="B25" s="25">
         <v>0.25</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="25">
         <v>0.25</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="25">
         <v>0.5</v>
       </c>
     </row>
@@ -1238,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D198E-5AB9-4659-98FE-90D6D40AD3BA}">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1479,7 +1489,7 @@
     </row>
     <row r="14" spans="1:13" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>
